--- a/EetdbServices/Docs/example.xlsx
+++ b/EetdbServices/Docs/example.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="14235" windowHeight="4875" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="14235" windowHeight="4875"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -15,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
   <si>
     <t>TYPE</t>
   </si>
@@ -233,9 +230,6 @@
     <t>Производство тепла и холода</t>
   </si>
   <si>
-    <t>Производство тепла</t>
-  </si>
-  <si>
     <t>DIAMETER</t>
   </si>
   <si>
@@ -266,17 +260,26 @@
     <t>IT-340B</t>
   </si>
   <si>
-    <t>Технология</t>
-  </si>
-  <si>
     <t>Уменьшение выброса CO2</t>
+  </si>
+  <si>
+    <t>Потребление тепла</t>
+  </si>
+  <si>
+    <t>boiler</t>
+  </si>
+  <si>
+    <t>pipe</t>
+  </si>
+  <si>
+    <t>technology</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,29 +289,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF252525"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -323,15 +305,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF252525"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -339,8 +350,7 @@
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -386,63 +396,60 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -534,7 +541,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -569,7 +575,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -745,236 +750,217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="33.7109375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="35.85546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="36.42578125" style="11" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="10.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" style="12" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>35</v>
+      <c r="C3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>22</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>36</v>
+    <row r="4" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>23</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>37</v>
+    <row r="5" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>24</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="12" t="s">
+    <row r="6" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="15">
-        <v>0.18</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>25</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="F6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="15">
-        <v>0.12</v>
-      </c>
-      <c r="K5" s="11" t="s">
+      <c r="I6" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>26</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="G2" r:id="rId6"/>
-    <hyperlink ref="G3" r:id="rId7"/>
-    <hyperlink ref="G4" r:id="rId8"/>
-    <hyperlink ref="G5" r:id="rId9"/>
-    <hyperlink ref="G6" r:id="rId10"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="F2" r:id="rId6"/>
+    <hyperlink ref="F3" r:id="rId7"/>
+    <hyperlink ref="F4" r:id="rId8"/>
+    <hyperlink ref="F5" r:id="rId9"/>
+    <hyperlink ref="F6" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
@@ -982,242 +968,229 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.7109375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="35.85546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="2"/>
-    <col min="13" max="13" width="23.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="19.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="2"/>
-    <col min="19" max="19" width="13.140625" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="6" style="7" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="26" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="7"/>
+    <col min="12" max="12" width="23.42578125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" style="7" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="7"/>
+    <col min="18" max="18" width="13.140625" style="7" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="3">
+        <v>51.4</v>
+      </c>
+      <c r="O4" s="3">
         <v>63</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>33</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" s="2">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>34</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>35</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4" s="2">
-        <v>51.4</v>
-      </c>
-      <c r="P4" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q4" s="2">
+      <c r="P4" s="3">
         <v>200</v>
       </c>
-      <c r="R4" s="2">
+      <c r="Q4" s="3">
         <v>0.03</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3:G4" r:id="rId2" display="http://www.links.com/tech_33.html"/>
-    <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="G4" r:id="rId4"/>
-    <hyperlink ref="F2" r:id="rId5"/>
-    <hyperlink ref="F3" r:id="rId6"/>
-    <hyperlink ref="F4" r:id="rId7"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3:H4" r:id="rId2" display="http://www.links.com/tech_33.html"/>
+    <hyperlink ref="H3" r:id="rId3"/>
+    <hyperlink ref="H4" r:id="rId4"/>
+    <hyperlink ref="G2" r:id="rId5"/>
+    <hyperlink ref="G3" r:id="rId6"/>
+    <hyperlink ref="G4" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId8"/>
 </worksheet>
 </file>
--- a/EetdbServices/Docs/example.xlsx
+++ b/EetdbServices/Docs/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="14235" windowHeight="4875"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="16650" windowHeight="9390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
   <si>
     <t>TYPE</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>technology</t>
+  </si>
+  <si>
+    <t>CODE</t>
   </si>
 </sst>
 </file>
@@ -753,7 +756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -971,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1000,7 +1003,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>

--- a/EetdbServices/Docs/example.xlsx
+++ b/EetdbServices/Docs/example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="16650" windowHeight="9390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="16650" windowHeight="9390"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -281,8 +281,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,8 +456,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -470,9 +470,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -510,7 +510,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -544,6 +544,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -578,9 +579,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -753,232 +755,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="10.5703125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="36.42578125" style="12" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="16">
-        <v>0.18</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A5" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="16">
-        <v>0.12</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A6" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="F2" r:id="rId6"/>
-    <hyperlink ref="F3" r:id="rId7"/>
-    <hyperlink ref="F4" r:id="rId8"/>
-    <hyperlink ref="F5" r:id="rId9"/>
-    <hyperlink ref="F6" r:id="rId10"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="7" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" style="7" customWidth="1"/>
@@ -1001,7 +785,7 @@
     <col min="19" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>86</v>
       </c>
@@ -1057,7 +841,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" ht="13.5" customHeight="1">
+    <row r="2" spans="1:18" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>83</v>
       </c>
@@ -1098,7 +882,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="3" customFormat="1" ht="13.5" customHeight="1">
+    <row r="3" spans="1:18" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>83</v>
       </c>
@@ -1139,7 +923,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="3" customFormat="1" ht="13.5" customHeight="1">
+    <row r="4" spans="1:18" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>84</v>
       </c>
@@ -1196,4 +980,222 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId8"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="36.42578125" style="12" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="F2" r:id="rId6"/>
+    <hyperlink ref="F3" r:id="rId7"/>
+    <hyperlink ref="F4" r:id="rId8"/>
+    <hyperlink ref="F5" r:id="rId9"/>
+    <hyperlink ref="F6" r:id="rId10"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+</worksheet>
 </file>